--- a/data-raw/watershed/mokelumne/data/LMR_habitat__s_v2mw_to_MT.xlsx
+++ b/data-raw/watershed/mokelumne/data/LMR_habitat__s_v2mw_to_MT.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC57BC9-388D-8E4F-BBA4-89FC98DB4758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22600" windowHeight="16040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floodplain (new flows)" sheetId="5" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="Below Normal" sheetId="13" r:id="rId6"/>
     <sheet name="dry" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -238,8 +239,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +541,13 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -567,17 +575,10 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
@@ -590,12 +591,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -745,6 +749,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E97-9140-823B-02CD538D5D8B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -831,6 +840,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E97-9140-823B-02CD538D5D8B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -922,6 +936,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E97-9140-823B-02CD538D5D8B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -968,7 +987,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1071,7 +1089,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1221,6 +1239,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4D3-5A40-B041-56F2526D7B07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1307,6 +1330,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4D3-5A40-B041-56F2526D7B07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1398,6 +1426,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4D3-5A40-B041-56F2526D7B07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1444,7 +1477,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1547,7 +1579,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1660,6 +1692,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3BF0-5342-BE5D-8C82CF31EB42}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1783,7 +1820,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1963,6 +2000,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F32-3B40-8ED0-8448A74CFDF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2076,6 +2118,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F32-3B40-8ED0-8448A74CFDF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2197,6 +2244,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F32-3B40-8ED0-8448A74CFDF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2243,7 +2295,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2346,7 +2397,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2526,6 +2577,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF25-F449-AAF8-DA3129C1B457}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2639,6 +2695,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF25-F449-AAF8-DA3129C1B457}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2760,6 +2821,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF25-F449-AAF8-DA3129C1B457}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2806,7 +2872,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2909,7 +2974,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3089,6 +3154,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F892-9346-BAB3-393E5E032C3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3205,6 +3275,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F892-9346-BAB3-393E5E032C3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3326,6 +3401,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F892-9346-BAB3-393E5E032C3E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3372,7 +3452,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3491,7 +3570,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3528,7 +3613,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3563,7 +3654,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3598,7 +3695,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3635,7 +3738,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3672,7 +3781,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3735,7 +3850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3768,9 +3883,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3803,6 +3935,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3978,49 +4127,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="13" style="59" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" style="59" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="13" style="50" customWidth="1"/>
+    <col min="6" max="8" width="10.5" style="50" customWidth="1"/>
+    <col min="9" max="10" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="59" t="s">
+    <row r="1" spans="1:11">
+      <c r="F1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="50" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="1:11" ht="17" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -4037,8 +4186,8 @@
       </c>
       <c r="J2" s="30"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -4047,11 +4196,11 @@
       <c r="C3" s="40">
         <v>800</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="52">
         <f>((-0.0000006*(C3^2))+(0.0086*C3)-1.107)*39</f>
         <v>210.17099999999996</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E14" si="0">D3*0.27</f>
         <v>56.746169999999992</v>
       </c>
@@ -4076,19 +4225,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="56"/>
       <c r="B4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="40">
         <v>900</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="52">
         <f t="shared" ref="D4:D8" si="1">((-0.0000006*(C4^2))+(0.0086*C4)-1.107)*39</f>
         <v>239.733</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="52">
         <f t="shared" si="0"/>
         <v>64.727910000000008</v>
       </c>
@@ -4113,19 +4262,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="56"/>
       <c r="B5" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="40">
         <v>1100</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="52">
         <f t="shared" si="1"/>
         <v>297.45300000000009</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="52">
         <f t="shared" si="0"/>
         <v>80.312310000000025</v>
       </c>
@@ -4150,19 +4299,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="56"/>
       <c r="B6" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="40">
         <v>1300</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="52">
         <f t="shared" si="1"/>
         <v>353.30100000000004</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="52">
         <f t="shared" si="0"/>
         <v>95.39127000000002</v>
       </c>
@@ -4184,19 +4333,19 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="56"/>
       <c r="B7" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="40">
         <v>1500</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="52">
         <f t="shared" si="1"/>
         <v>407.27700000000004</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
         <v>109.96479000000002</v>
       </c>
@@ -4218,19 +4367,19 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="56"/>
       <c r="B8" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="40">
         <v>1700</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="52">
         <f t="shared" si="1"/>
         <v>459.38099999999997</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="52">
         <f t="shared" si="0"/>
         <v>124.03287</v>
       </c>
@@ -4255,19 +4404,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="56"/>
       <c r="B9" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="40">
         <v>800</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="52">
         <f>((-0.0000006*(C9^2))+(0.0086*C9)-1.107)*56.7</f>
         <v>305.55629999999996</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="52">
         <f t="shared" si="0"/>
         <v>82.50020099999999</v>
       </c>
@@ -4292,19 +4441,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="56"/>
       <c r="B10" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="40">
         <v>900</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="52">
         <f t="shared" ref="D10:D14" si="6">((-0.0000006*(C10^2))+(0.0086*C10)-1.107)*56.7</f>
         <v>348.53490000000005</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="52">
         <f t="shared" si="0"/>
         <v>94.104423000000025</v>
       </c>
@@ -4326,19 +4475,19 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="56"/>
       <c r="B11" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="40">
         <v>1100</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="52">
         <f t="shared" si="6"/>
         <v>432.4509000000001</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="52">
         <f t="shared" si="0"/>
         <v>116.76174300000004</v>
       </c>
@@ -4363,19 +4512,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="56"/>
       <c r="B12" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="40">
         <v>1300</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="52">
         <f t="shared" si="6"/>
         <v>513.64530000000013</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="52">
         <f t="shared" si="0"/>
         <v>138.68423100000004</v>
       </c>
@@ -4397,19 +4546,19 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="56"/>
       <c r="B13" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="40">
         <v>1500</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="52">
         <f t="shared" si="6"/>
         <v>592.11810000000014</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="52">
         <f t="shared" si="0"/>
         <v>159.87188700000004</v>
       </c>
@@ -4434,19 +4583,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:11" ht="16" thickBot="1">
+      <c r="A14" s="57"/>
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="40">
         <v>1700</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="52">
         <f t="shared" si="6"/>
         <v>667.86930000000007</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="52">
         <f t="shared" si="0"/>
         <v>180.32471100000004</v>
       </c>
@@ -4468,8 +4617,8 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -4478,11 +4627,11 @@
       <c r="C15" s="40">
         <v>800</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="52">
         <f>(3.7758*LN(C15)-22.85)*39</f>
         <v>93.200521491813774</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="52">
         <f>D15*0.27</f>
         <v>25.164140802789721</v>
       </c>
@@ -4504,19 +4653,19 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="59"/>
       <c r="B16" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="40">
         <v>900</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="52">
         <f t="shared" ref="D16:D20" si="7">(3.7758*LN(C16)-22.85)*39</f>
         <v>110.54480374703734</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="52">
         <f t="shared" ref="E16:E38" si="8">D16*0.27</f>
         <v>29.847097011700082</v>
       </c>
@@ -4538,19 +4687,19 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="59"/>
       <c r="B17" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="40">
         <v>1100</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="52">
         <f t="shared" si="7"/>
         <v>140.09480781215083</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="52">
         <f t="shared" si="8"/>
         <v>37.825598109280726</v>
       </c>
@@ -4572,19 +4721,19 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="59"/>
       <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="40">
         <v>1300</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="52">
         <f t="shared" si="7"/>
         <v>164.69455751412696</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="52">
         <f t="shared" si="8"/>
         <v>44.467530528814279</v>
       </c>
@@ -4606,19 +4755,19 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="59"/>
       <c r="B19" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="40">
         <v>1500</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="52">
         <f t="shared" si="7"/>
         <v>185.76704396544679</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="52">
         <f t="shared" si="8"/>
         <v>50.157101870670637</v>
       </c>
@@ -4640,19 +4789,19 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+    <row r="20" spans="1:10">
+      <c r="A20" s="59"/>
       <c r="B20" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="40">
         <v>1700</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="52">
         <f t="shared" si="7"/>
         <v>204.19809277691044</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="52">
         <f t="shared" si="8"/>
         <v>55.133485049765824</v>
       </c>
@@ -4674,19 +4823,19 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="59"/>
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="40">
         <v>800</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="52">
         <f>(3.7758*LN(C21)-22.85)*56.7</f>
         <v>135.49921970732927</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="52">
         <f t="shared" si="8"/>
         <v>36.584789320978906</v>
       </c>
@@ -4708,19 +4857,19 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:10">
+      <c r="A22" s="59"/>
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="40">
         <v>900</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="52">
         <f t="shared" ref="D22:D26" si="9">(3.7758*LN(C22)-22.85)*56.7</f>
         <v>160.71513775530815</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="52">
         <f t="shared" si="8"/>
         <v>43.393087193933205</v>
       </c>
@@ -4742,19 +4891,19 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+    <row r="23" spans="1:10">
+      <c r="A23" s="59"/>
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="40">
         <v>1100</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="52">
         <f t="shared" si="9"/>
         <v>203.67629751151162</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="52">
         <f t="shared" si="8"/>
         <v>54.992600328108139</v>
       </c>
@@ -4776,19 +4925,19 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="59"/>
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="40">
         <v>1300</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="52">
         <f t="shared" si="9"/>
         <v>239.44054900130766</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="52">
         <f t="shared" si="8"/>
         <v>64.648948230353071</v>
       </c>
@@ -4810,19 +4959,19 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:10">
+      <c r="A25" s="59"/>
       <c r="B25" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="40">
         <v>1500</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="52">
         <f t="shared" si="9"/>
         <v>270.07670238053419</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="52">
         <f t="shared" si="8"/>
         <v>72.920709642744228</v>
       </c>
@@ -4844,19 +4993,19 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:10" ht="16" thickBot="1">
+      <c r="A26" s="60"/>
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="40">
         <v>1700</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="52">
         <f t="shared" si="9"/>
         <v>296.87261180643134</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="52">
         <f t="shared" si="8"/>
         <v>80.155605187736469</v>
       </c>
@@ -4878,8 +5027,8 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="61" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="40" t="s">
@@ -4888,11 +5037,11 @@
       <c r="C27" s="40">
         <v>800</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="52">
         <f>AVERAGE(D3,D15)</f>
         <v>151.68576074590686</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="52">
         <f t="shared" si="8"/>
         <v>40.955155401394855</v>
       </c>
@@ -4914,19 +5063,19 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="62"/>
       <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="40">
         <v>900</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="52">
         <f t="shared" ref="D28:D31" si="10">AVERAGE(D4,D16)</f>
         <v>175.13890187351868</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="52">
         <f t="shared" si="8"/>
         <v>47.287503505850047</v>
       </c>
@@ -4948,19 +5097,19 @@
       </c>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="62"/>
       <c r="B29" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="40">
         <v>1100</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="52">
         <f t="shared" si="10"/>
         <v>218.77390390607547</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="52">
         <f t="shared" si="8"/>
         <v>59.068954054640379</v>
       </c>
@@ -4982,19 +5131,19 @@
       </c>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+    <row r="30" spans="1:10">
+      <c r="A30" s="62"/>
       <c r="B30" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="40">
         <v>1300</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="52">
         <f t="shared" si="10"/>
         <v>258.99777875706349</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="52">
         <f t="shared" si="8"/>
         <v>69.92940026440715</v>
       </c>
@@ -5016,19 +5165,19 @@
       </c>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+    <row r="31" spans="1:10">
+      <c r="A31" s="62"/>
       <c r="B31" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="40">
         <v>1500</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="52">
         <f t="shared" si="10"/>
         <v>296.5220219827234</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="52">
         <f t="shared" si="8"/>
         <v>80.060945935335326</v>
       </c>
@@ -5050,19 +5199,19 @@
       </c>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+    <row r="32" spans="1:10">
+      <c r="A32" s="62"/>
       <c r="B32" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="40">
         <v>1700</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="52">
         <f>AVERAGE(D8,D20)</f>
         <v>331.78954638845522</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="52">
         <f t="shared" si="8"/>
         <v>89.583177524882913</v>
       </c>
@@ -5084,19 +5233,19 @@
       </c>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+    <row r="33" spans="1:10">
+      <c r="A33" s="62"/>
       <c r="B33" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="40">
         <v>800</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="52">
         <f>AVERAGE(D9,D21)</f>
         <v>220.52775985366463</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="52">
         <f t="shared" si="8"/>
         <v>59.542495160489452</v>
       </c>
@@ -5118,19 +5267,19 @@
       </c>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+    <row r="34" spans="1:10">
+      <c r="A34" s="62"/>
       <c r="B34" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="40">
         <v>900</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="52">
         <f t="shared" ref="D34:D38" si="11">AVERAGE(D10,D22)</f>
         <v>254.6250188776541</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="52">
         <f t="shared" si="8"/>
         <v>68.748755096966605</v>
       </c>
@@ -5152,19 +5301,19 @@
       </c>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+    <row r="35" spans="1:10">
+      <c r="A35" s="62"/>
       <c r="B35" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="40">
         <v>1100</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="52">
         <f t="shared" si="11"/>
         <v>318.06359875575583</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="52">
         <f t="shared" si="8"/>
         <v>85.877171664054075</v>
       </c>
@@ -5186,19 +5335,19 @@
       </c>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+    <row r="36" spans="1:10">
+      <c r="A36" s="62"/>
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="40">
         <v>1300</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="52">
         <f t="shared" si="11"/>
         <v>376.5429245006539</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="52">
         <f t="shared" si="8"/>
         <v>101.66658961517656</v>
       </c>
@@ -5220,19 +5369,19 @@
       </c>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="62"/>
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="40">
         <v>1500</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="52">
         <f t="shared" si="11"/>
         <v>431.09740119026719</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="52">
         <f t="shared" si="8"/>
         <v>116.39629832137214</v>
       </c>
@@ -5254,19 +5403,19 @@
       </c>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
+    <row r="38" spans="1:10" ht="16" thickBot="1">
+      <c r="A38" s="63"/>
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="40">
         <v>1700</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="52">
         <f t="shared" si="11"/>
         <v>482.3709559032157</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="52">
         <f t="shared" si="8"/>
         <v>130.24015809386825</v>
       </c>
@@ -5301,24 +5450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="10" width="10.5703125" customWidth="1"/>
+    <col min="6" max="10" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="F1" s="48" t="s">
         <v>49</v>
       </c>
@@ -5332,7 +5481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17" thickBot="1">
       <c r="B2" s="35" t="s">
         <v>34</v>
       </c>
@@ -5359,8 +5508,8 @@
       </c>
       <c r="J2" s="30"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -5398,8 +5547,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="56"/>
       <c r="B4" s="42" t="s">
         <v>36</v>
       </c>
@@ -5435,8 +5584,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="56"/>
       <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
@@ -5472,8 +5621,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="56"/>
       <c r="B6" s="30" t="s">
         <v>36</v>
       </c>
@@ -5506,8 +5655,8 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="56"/>
       <c r="B7" s="37" t="s">
         <v>36</v>
       </c>
@@ -5540,8 +5689,8 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="56"/>
       <c r="B8" s="30" t="s">
         <v>36</v>
       </c>
@@ -5577,8 +5726,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="56"/>
       <c r="B9" s="39" t="s">
         <v>35</v>
       </c>
@@ -5614,8 +5763,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="56"/>
       <c r="B10" s="42" t="s">
         <v>35</v>
       </c>
@@ -5648,8 +5797,8 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="56"/>
       <c r="B11" s="30" t="s">
         <v>35</v>
       </c>
@@ -5685,8 +5834,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="56"/>
       <c r="B12" s="30" t="s">
         <v>35</v>
       </c>
@@ -5719,8 +5868,8 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="56"/>
       <c r="B13" s="37" t="s">
         <v>35</v>
       </c>
@@ -5756,8 +5905,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:11" ht="16" thickBot="1">
+      <c r="A14" s="57"/>
       <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
@@ -5790,8 +5939,8 @@
       </c>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -5826,8 +5975,8 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="59"/>
       <c r="B16" s="42" t="s">
         <v>36</v>
       </c>
@@ -5860,8 +6009,8 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="59"/>
       <c r="B17" s="30" t="s">
         <v>36</v>
       </c>
@@ -5894,8 +6043,8 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="59"/>
       <c r="B18" s="30" t="s">
         <v>36</v>
       </c>
@@ -5928,8 +6077,8 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="59"/>
       <c r="B19" s="37" t="s">
         <v>36</v>
       </c>
@@ -5962,8 +6111,8 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+    <row r="20" spans="1:10">
+      <c r="A20" s="59"/>
       <c r="B20" s="30" t="s">
         <v>36</v>
       </c>
@@ -5996,8 +6145,8 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="59"/>
       <c r="B21" s="39" t="s">
         <v>35</v>
       </c>
@@ -6030,8 +6179,8 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+    <row r="22" spans="1:10">
+      <c r="A22" s="59"/>
       <c r="B22" s="42" t="s">
         <v>35</v>
       </c>
@@ -6064,8 +6213,8 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+    <row r="23" spans="1:10">
+      <c r="A23" s="59"/>
       <c r="B23" s="30" t="s">
         <v>35</v>
       </c>
@@ -6098,8 +6247,8 @@
       </c>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="59"/>
       <c r="B24" s="30" t="s">
         <v>35</v>
       </c>
@@ -6132,8 +6281,8 @@
       </c>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:10">
+      <c r="A25" s="59"/>
       <c r="B25" s="37" t="s">
         <v>35</v>
       </c>
@@ -6166,8 +6315,8 @@
       </c>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:10" ht="16" thickBot="1">
+      <c r="A26" s="60"/>
       <c r="B26" s="30" t="s">
         <v>35</v>
       </c>
@@ -6200,8 +6349,8 @@
       </c>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="61" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="39" t="s">
@@ -6236,8 +6385,8 @@
       </c>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="62"/>
       <c r="B28" s="42" t="s">
         <v>36</v>
       </c>
@@ -6270,8 +6419,8 @@
       </c>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="62"/>
       <c r="B29" s="30" t="s">
         <v>36</v>
       </c>
@@ -6304,8 +6453,8 @@
       </c>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+    <row r="30" spans="1:10">
+      <c r="A30" s="62"/>
       <c r="B30" s="30" t="s">
         <v>36</v>
       </c>
@@ -6338,8 +6487,8 @@
       </c>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+    <row r="31" spans="1:10">
+      <c r="A31" s="62"/>
       <c r="B31" s="37" t="s">
         <v>36</v>
       </c>
@@ -6372,8 +6521,8 @@
       </c>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+    <row r="32" spans="1:10">
+      <c r="A32" s="62"/>
       <c r="B32" s="30" t="s">
         <v>36</v>
       </c>
@@ -6406,8 +6555,8 @@
       </c>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+    <row r="33" spans="1:10">
+      <c r="A33" s="62"/>
       <c r="B33" s="39" t="s">
         <v>35</v>
       </c>
@@ -6440,8 +6589,8 @@
       </c>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+    <row r="34" spans="1:10">
+      <c r="A34" s="62"/>
       <c r="B34" s="42" t="s">
         <v>35</v>
       </c>
@@ -6474,8 +6623,8 @@
       </c>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+    <row r="35" spans="1:10">
+      <c r="A35" s="62"/>
       <c r="B35" s="30" t="s">
         <v>35</v>
       </c>
@@ -6508,8 +6657,8 @@
       </c>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+    <row r="36" spans="1:10">
+      <c r="A36" s="62"/>
       <c r="B36" s="30" t="s">
         <v>35</v>
       </c>
@@ -6542,8 +6691,8 @@
       </c>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="62"/>
       <c r="B37" s="37" t="s">
         <v>35</v>
       </c>
@@ -6576,8 +6725,8 @@
       </c>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
+    <row r="38" spans="1:10" ht="16" thickBot="1">
+      <c r="A38" s="63"/>
       <c r="B38" s="30" t="s">
         <v>35</v>
       </c>
@@ -6623,19 +6772,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6649,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -6657,7 +6806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -6679,7 +6828,7 @@
         <v>13.676064143999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6704,7 +6853,7 @@
         <v>12.827381343999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>105</v>
       </c>
@@ -6729,7 +6878,7 @@
         <v>10.728938544</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>140</v>
       </c>
@@ -6740,7 +6889,7 @@
         <v>275718.15000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>180</v>
       </c>
@@ -6751,7 +6900,7 @@
         <v>344784.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>480</v>
       </c>
@@ -6762,7 +6911,7 @@
         <v>601086.375</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -6770,7 +6919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>0</v>
       </c>
@@ -6781,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>105</v>
       </c>
@@ -6792,7 +6941,7 @@
         <v>4.8620041322773186</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>140</v>
       </c>
@@ -6803,7 +6952,7 @@
         <v>6.3296177685950417</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>180</v>
       </c>
@@ -6814,7 +6963,7 @@
         <v>7.9151549586776868</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>480</v>
       </c>
@@ -6833,25 +6982,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="32">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6879,7 +7028,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -6910,7 +7059,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="8">
         <v>105</v>
       </c>
@@ -6938,7 +7087,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="8">
         <v>140</v>
       </c>
@@ -6966,7 +7115,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="8">
         <v>180</v>
       </c>
@@ -6996,7 +7145,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="8">
         <v>272</v>
       </c>
@@ -7026,7 +7175,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="8">
         <v>459</v>
       </c>
@@ -7050,7 +7199,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="8">
         <v>899</v>
       </c>
@@ -7074,7 +7223,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7092,7 +7241,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="29">
       <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
@@ -7116,7 +7265,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -7144,7 +7293,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="5">
         <v>272</v>
       </c>
@@ -7174,7 +7323,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="24">
         <v>459</v>
       </c>
@@ -7204,7 +7353,7 @@
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="5">
         <v>899</v>
       </c>
@@ -7234,7 +7383,7 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="5"/>
       <c r="B15" s="25"/>
       <c r="C15" s="5"/>
@@ -7252,7 +7401,7 @@
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
     </row>
-    <row r="16" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="43">
       <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
@@ -7276,7 +7425,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -7320,7 +7469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="28">
         <v>100</v>
       </c>
@@ -7368,7 +7517,7 @@
         <v>23324.25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="28">
         <v>200</v>
       </c>
@@ -7416,7 +7565,7 @@
         <v>17657.25</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="28">
         <v>300</v>
       </c>
@@ -7464,7 +7613,7 @@
         <v>13015.25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="28">
         <v>400</v>
       </c>
@@ -7512,7 +7661,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="28">
         <v>500</v>
       </c>
@@ -7560,7 +7709,7 @@
         <v>7086.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="28">
         <v>600</v>
       </c>
@@ -7608,7 +7757,7 @@
         <v>6103.25</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="28">
         <v>700</v>
       </c>
@@ -7656,7 +7805,7 @@
         <v>5643</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="28">
         <v>800</v>
       </c>
@@ -7704,7 +7853,7 @@
         <v>5298.5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="28">
         <v>900</v>
       </c>
@@ -7752,7 +7901,7 @@
         <v>5051.75</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="28">
         <v>1000</v>
       </c>
@@ -7806,40 +7955,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="13" style="59" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="59" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="13" style="50" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="50" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="59" t="s">
+    <row r="1" spans="1:8">
+      <c r="F1" s="50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="1:8" ht="17" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -7847,8 +7996,8 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -7857,11 +8006,11 @@
       <c r="C3" s="40">
         <v>700</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="52">
         <f>((-0.0000006*(C3^2))+(0.0086*C3)-1.107)*39</f>
         <v>180.14099999999999</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E24" si="0">D3*0.27</f>
         <v>48.638069999999999</v>
       </c>
@@ -7874,19 +8023,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="56"/>
       <c r="B4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="40">
         <v>800</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="52">
         <f>((-0.0000006*(C4^2))+(0.0086*C4)-1.107)*39</f>
         <v>210.17099999999996</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="52">
         <f t="shared" ref="E4" si="1">D4*0.27</f>
         <v>56.746169999999992</v>
       </c>
@@ -7899,19 +8048,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="56"/>
       <c r="B5" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="40">
         <v>900</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="52">
         <f t="shared" ref="D5:D13" si="2">((-0.0000006*(C5^2))+(0.0086*C5)-1.107)*39</f>
         <v>239.733</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="52">
         <f t="shared" si="0"/>
         <v>64.727910000000008</v>
       </c>
@@ -7924,19 +8073,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="56"/>
       <c r="B6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="53">
         <v>1000</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="52">
         <f t="shared" ref="D6" si="4">((-0.0000006*(C6^2))+(0.0086*C6)-1.107)*39</f>
         <v>268.827</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="52">
         <f t="shared" ref="E6" si="5">D6*0.27</f>
         <v>72.583290000000005</v>
       </c>
@@ -7946,19 +8095,19 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="56"/>
       <c r="B7" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="40">
         <v>1100</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="52">
         <f t="shared" si="2"/>
         <v>297.45300000000009</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
         <v>80.312310000000025</v>
       </c>
@@ -7968,19 +8117,19 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="56"/>
       <c r="B8" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="40">
         <v>1200</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="52">
         <f t="shared" si="2"/>
         <v>325.61099999999999</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="52">
         <f t="shared" si="0"/>
         <v>87.914969999999997</v>
       </c>
@@ -7993,19 +8142,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="56"/>
       <c r="B9" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="40">
         <v>1300</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="52">
         <f t="shared" si="2"/>
         <v>353.30100000000004</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="52">
         <f t="shared" si="0"/>
         <v>95.39127000000002</v>
       </c>
@@ -8018,19 +8167,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="56"/>
       <c r="B10" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="40">
         <v>1400</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="52">
         <f t="shared" si="2"/>
         <v>380.52299999999997</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="52">
         <f t="shared" si="0"/>
         <v>102.74121</v>
       </c>
@@ -8040,19 +8189,19 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="56"/>
       <c r="B11" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="40">
         <v>1500</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="52">
         <f t="shared" si="2"/>
         <v>407.27700000000004</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="52">
         <f t="shared" si="0"/>
         <v>109.96479000000002</v>
       </c>
@@ -8065,19 +8214,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="56"/>
       <c r="B12" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="40">
         <v>1600</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="52">
         <f t="shared" si="2"/>
         <v>433.56300000000005</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="52">
         <f t="shared" si="0"/>
         <v>117.06201000000001</v>
       </c>
@@ -8087,19 +8236,19 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="56"/>
       <c r="B13" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="40">
         <v>1700</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="52">
         <f t="shared" si="2"/>
         <v>459.38099999999997</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="52">
         <f t="shared" si="0"/>
         <v>124.03287</v>
       </c>
@@ -8112,19 +8261,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56"/>
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="40">
         <v>700</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="52">
         <f>((-0.0000006*(C14^2))+(0.0086*C14)-1.107)*56.7</f>
         <v>261.89729999999997</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="52">
         <f t="shared" si="0"/>
         <v>70.712271000000001</v>
       </c>
@@ -8134,19 +8283,19 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="56"/>
       <c r="B15" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="40">
         <v>800</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="52">
         <f>((-0.0000006*(C15^2))+(0.0086*C15)-1.107)*56.7</f>
         <v>305.55629999999996</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="52">
         <f t="shared" si="0"/>
         <v>82.50020099999999</v>
       </c>
@@ -8156,19 +8305,19 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="56"/>
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="40">
         <v>900</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="52">
         <f t="shared" ref="D16:D24" si="7">((-0.0000006*(C16^2))+(0.0086*C16)-1.107)*56.7</f>
         <v>348.53490000000005</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="52">
         <f t="shared" si="0"/>
         <v>94.104423000000025</v>
       </c>
@@ -8178,19 +8327,19 @@
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="56"/>
       <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="40">
         <v>1000</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="52">
         <f t="shared" ref="D17" si="8">((-0.0000006*(C17^2))+(0.0086*C17)-1.107)*56.7</f>
         <v>390.8331</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="52">
         <f t="shared" ref="E17" si="9">D17*0.27</f>
         <v>105.52493700000001</v>
       </c>
@@ -8200,19 +8349,19 @@
       </c>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="56"/>
       <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="40">
         <v>1100</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="52">
         <f t="shared" si="7"/>
         <v>432.4509000000001</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="52">
         <f t="shared" si="0"/>
         <v>116.76174300000004</v>
       </c>
@@ -8222,19 +8371,19 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="56"/>
       <c r="B19" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="40">
         <v>1200</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="52">
         <f t="shared" si="7"/>
         <v>473.38830000000002</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="52">
         <f t="shared" si="0"/>
         <v>127.81484100000002</v>
       </c>
@@ -8244,19 +8393,19 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="56"/>
       <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="40">
         <v>1300</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="52">
         <f t="shared" si="7"/>
         <v>513.64530000000013</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="52">
         <f t="shared" si="0"/>
         <v>138.68423100000004</v>
       </c>
@@ -8266,19 +8415,19 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="56"/>
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="40">
         <v>1400</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="52">
         <f t="shared" si="7"/>
         <v>553.22190000000001</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="52">
         <f t="shared" si="0"/>
         <v>149.36991300000003</v>
       </c>
@@ -8288,19 +8437,19 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="56"/>
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="40">
         <v>1500</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="52">
         <f t="shared" si="7"/>
         <v>592.11810000000014</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="52">
         <f t="shared" si="0"/>
         <v>159.87188700000004</v>
       </c>
@@ -8310,19 +8459,19 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="56"/>
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="40">
         <v>1600</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="52">
         <f t="shared" si="7"/>
         <v>630.33390000000009</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="52">
         <f t="shared" si="0"/>
         <v>170.19015300000004</v>
       </c>
@@ -8332,19 +8481,19 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+    <row r="24" spans="1:7" ht="16" thickBot="1">
+      <c r="A24" s="56"/>
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="40">
         <v>1700</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="52">
         <f t="shared" si="7"/>
         <v>667.86930000000007</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="52">
         <f t="shared" si="0"/>
         <v>180.32471100000004</v>
       </c>
@@ -8354,8 +8503,8 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="58" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -8364,11 +8513,11 @@
       <c r="C25" s="40">
         <v>700</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="52">
         <f>(3.7758*LN(C25)-22.85)*39</f>
         <v>73.537196033218436</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="52">
         <f>D25*0.27</f>
         <v>19.855042928968977</v>
       </c>
@@ -8378,19 +8527,19 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="59"/>
       <c r="B26" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="40">
         <v>800</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="52">
         <f>(3.7758*LN(C26)-22.85)*39</f>
         <v>93.200521491813774</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="52">
         <f>D26*0.27</f>
         <v>25.164140802789721</v>
       </c>
@@ -8400,19 +8549,19 @@
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="59"/>
       <c r="B27" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="40">
         <v>900</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="52">
         <f t="shared" ref="D27:D35" si="10">(3.7758*LN(C27)-22.85)*39</f>
         <v>110.54480374703734</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="52">
         <f t="shared" ref="E27:E68" si="11">D27*0.27</f>
         <v>29.847097011700082</v>
       </c>
@@ -8422,19 +8571,19 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="59"/>
       <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="40">
         <v>1000</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="52">
         <f t="shared" ref="D28" si="12">(3.7758*LN(C28)-22.85)*39</f>
         <v>126.05979291284918</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="52">
         <f t="shared" ref="E28" si="13">D28*0.27</f>
         <v>34.036144086469278</v>
       </c>
@@ -8444,19 +8593,19 @@
       </c>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="59"/>
       <c r="B29" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="40">
         <v>1100</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="52">
         <f t="shared" si="10"/>
         <v>140.09480781215083</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="52">
         <f t="shared" si="11"/>
         <v>37.825598109280726</v>
       </c>
@@ -8466,19 +8615,19 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="59"/>
       <c r="B30" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="40">
         <v>1200</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="52">
         <f t="shared" si="10"/>
         <v>152.90777254441124</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="52">
         <f t="shared" si="11"/>
         <v>41.28509858699104</v>
       </c>
@@ -8488,19 +8637,19 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="59"/>
       <c r="B31" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="40">
         <v>1300</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="52">
         <f t="shared" si="10"/>
         <v>164.69455751412696</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="52">
         <f t="shared" si="11"/>
         <v>44.467530528814279</v>
       </c>
@@ -8510,19 +8659,19 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="59"/>
       <c r="B32" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="40">
         <v>1400</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="52">
         <f t="shared" si="10"/>
         <v>175.60741588318993</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="52">
         <f t="shared" si="11"/>
         <v>47.414002288461283</v>
       </c>
@@ -8532,19 +8681,19 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="59"/>
       <c r="B33" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="40">
         <v>1500</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="52">
         <f t="shared" si="10"/>
         <v>185.76704396544679</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="52">
         <f t="shared" si="11"/>
         <v>50.157101870670637</v>
       </c>
@@ -8554,19 +8703,19 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="59"/>
       <c r="B34" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="40">
         <v>1600</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="52">
         <f t="shared" si="10"/>
         <v>195.27074134178514</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="52">
         <f t="shared" si="11"/>
         <v>52.723100162281995</v>
       </c>
@@ -8576,19 +8725,19 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="59"/>
       <c r="B35" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="40">
         <v>1700</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="52">
         <f t="shared" si="10"/>
         <v>204.19809277691044</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="52">
         <f t="shared" si="11"/>
         <v>55.133485049765824</v>
       </c>
@@ -8598,19 +8747,19 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="59"/>
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="40">
         <v>700</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="52">
         <f>(3.7758*LN(C36)-22.85)*56.7</f>
         <v>106.91176961752527</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="52">
         <f t="shared" si="11"/>
         <v>28.866177796731822</v>
       </c>
@@ -8620,19 +8769,19 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="59"/>
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="40">
         <v>800</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="52">
         <f>(3.7758*LN(C37)-22.85)*56.7</f>
         <v>135.49921970732927</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="52">
         <f t="shared" si="11"/>
         <v>36.584789320978906</v>
       </c>
@@ -8642,19 +8791,19 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="59"/>
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="40">
         <v>900</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="52">
         <f t="shared" ref="D38:D46" si="14">(3.7758*LN(C38)-22.85)*56.7</f>
         <v>160.71513775530815</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="52">
         <f t="shared" si="11"/>
         <v>43.393087193933205</v>
       </c>
@@ -8664,19 +8813,19 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="59"/>
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="40">
         <v>1000</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="52">
         <f t="shared" ref="D39" si="15">(3.7758*LN(C39)-22.85)*56.7</f>
         <v>183.27154508098843</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="52">
         <f t="shared" ref="E39" si="16">D39*0.27</f>
         <v>49.483317171866879</v>
       </c>
@@ -8685,19 +8834,19 @@
         <v>24057</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="59"/>
       <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="40">
         <v>1100</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="52">
         <f t="shared" si="14"/>
         <v>203.67629751151162</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="52">
         <f t="shared" si="11"/>
         <v>54.992600328108139</v>
       </c>
@@ -8706,19 +8855,19 @@
         <v>27621</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="59"/>
       <c r="B41" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="40">
         <v>1200</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="52">
         <f t="shared" si="14"/>
         <v>222.3043770068748</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="52">
         <f t="shared" si="11"/>
         <v>60.022181791856198</v>
       </c>
@@ -8727,19 +8876,19 @@
         <v>31185</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="59"/>
       <c r="B42" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="40">
         <v>1300</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="52">
         <f t="shared" si="14"/>
         <v>239.44054900130766</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="52">
         <f t="shared" si="11"/>
         <v>64.648948230353071</v>
       </c>
@@ -8748,19 +8897,19 @@
         <v>34749</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="59"/>
       <c r="B43" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="40">
         <v>1400</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="52">
         <f t="shared" si="14"/>
         <v>255.3061661686377</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="52">
         <f t="shared" si="11"/>
         <v>68.932664865532189</v>
       </c>
@@ -8769,19 +8918,19 @@
         <v>38313</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="59"/>
       <c r="B44" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="40">
         <v>1500</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="52">
         <f t="shared" si="14"/>
         <v>270.07670238053419</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="52">
         <f t="shared" si="11"/>
         <v>72.920709642744228</v>
       </c>
@@ -8790,19 +8939,19 @@
         <v>41877</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="59"/>
       <c r="B45" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="40">
         <v>1600</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="52">
         <f t="shared" si="14"/>
         <v>283.89361625844151</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="52">
         <f t="shared" si="11"/>
         <v>76.651276389779213</v>
       </c>
@@ -8811,19 +8960,19 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+    <row r="46" spans="1:7" ht="16" thickBot="1">
+      <c r="A46" s="60"/>
       <c r="B46" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="40">
         <v>1700</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="52">
         <f t="shared" si="14"/>
         <v>296.87261180643134</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="52">
         <f t="shared" si="11"/>
         <v>80.155605187736469</v>
       </c>
@@ -8832,8 +8981,8 @@
         <v>49005</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
+    <row r="47" spans="1:7" ht="15" customHeight="1">
+      <c r="A47" s="64" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="40" t="s">
@@ -8842,11 +8991,11 @@
       <c r="C47" s="40">
         <v>700</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="52">
         <f>AVERAGE(D3,D25)</f>
         <v>126.83909801660921</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="52">
         <f t="shared" si="11"/>
         <v>34.246556464484492</v>
       </c>
@@ -8855,19 +9004,19 @@
         <v>13365</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="65"/>
       <c r="B48" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="40">
         <v>800</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="52">
         <f t="shared" ref="D48:D52" si="17">AVERAGE(D4,D26)</f>
         <v>151.68576074590686</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="52">
         <f t="shared" ref="E48:E51" si="18">D48*0.27</f>
         <v>40.955155401394855</v>
       </c>
@@ -8876,19 +9025,19 @@
         <v>16929</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="65"/>
       <c r="B49" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="40">
         <v>900</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="52">
         <f t="shared" si="17"/>
         <v>175.13890187351868</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="52">
         <f t="shared" si="18"/>
         <v>47.287503505850047</v>
       </c>
@@ -8897,19 +9046,19 @@
         <v>20493</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="65"/>
       <c r="B50" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="40">
         <v>1000</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="52">
         <f t="shared" si="17"/>
         <v>197.44339645642458</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="52">
         <f t="shared" si="18"/>
         <v>53.309717043234642</v>
       </c>
@@ -8918,19 +9067,19 @@
         <v>24057</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+    <row r="51" spans="1:6">
+      <c r="A51" s="65"/>
       <c r="B51" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="40">
         <v>1100</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="52">
         <f t="shared" si="17"/>
         <v>218.77390390607547</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="52">
         <f t="shared" si="18"/>
         <v>59.068954054640379</v>
       </c>
@@ -8939,19 +9088,19 @@
         <v>27621</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="65"/>
       <c r="B52" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="40">
         <v>1200</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="52">
         <f t="shared" si="17"/>
         <v>239.25938627220563</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="52">
         <f t="shared" ref="E52" si="19">D52*0.27</f>
         <v>64.600034293495526</v>
       </c>
@@ -8960,19 +9109,19 @@
         <v>31185</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="65"/>
       <c r="B53" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="40">
         <v>1300</v>
       </c>
-      <c r="D53" s="61">
-        <f>AVERAGE(D9,D31)</f>
+      <c r="D53" s="52">
+        <f t="shared" ref="D53:D68" si="20">AVERAGE(D9,D31)</f>
         <v>258.99777875706349</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="52">
         <f t="shared" si="11"/>
         <v>69.92940026440715</v>
       </c>
@@ -8981,20 +9130,20 @@
         <v>34749</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="A54" s="65"/>
       <c r="B54" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="40">
         <v>1400</v>
       </c>
-      <c r="D54" s="61">
-        <f>AVERAGE(D10,D32)</f>
+      <c r="D54" s="52">
+        <f t="shared" si="20"/>
         <v>278.06520794159496</v>
       </c>
-      <c r="E54" s="61">
-        <f t="shared" ref="E54" si="20">D54*0.27</f>
+      <c r="E54" s="52">
+        <f t="shared" ref="E54" si="21">D54*0.27</f>
         <v>75.077606144230643</v>
       </c>
       <c r="F54" s="40">
@@ -9002,19 +9151,19 @@
         <v>38313</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="65"/>
       <c r="B55" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="40">
         <v>1500</v>
       </c>
-      <c r="D55" s="61">
-        <f>AVERAGE(D11,D33)</f>
+      <c r="D55" s="52">
+        <f t="shared" si="20"/>
         <v>296.5220219827234</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="52">
         <f t="shared" si="11"/>
         <v>80.060945935335326</v>
       </c>
@@ -9023,20 +9172,20 @@
         <v>41877</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="65"/>
       <c r="B56" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="40">
         <v>1600</v>
       </c>
-      <c r="D56" s="61">
-        <f>AVERAGE(D12,D34)</f>
+      <c r="D56" s="52">
+        <f t="shared" si="20"/>
         <v>314.41687067089259</v>
       </c>
-      <c r="E56" s="61">
-        <f t="shared" ref="E56" si="21">D56*0.27</f>
+      <c r="E56" s="52">
+        <f t="shared" ref="E56" si="22">D56*0.27</f>
         <v>84.892555081141012</v>
       </c>
       <c r="F56" s="40">
@@ -9044,19 +9193,19 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="65"/>
       <c r="B57" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="40">
         <v>1700</v>
       </c>
-      <c r="D57" s="61">
-        <f>AVERAGE(D13,D35)</f>
+      <c r="D57" s="52">
+        <f t="shared" si="20"/>
         <v>331.78954638845522</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="52">
         <f t="shared" si="11"/>
         <v>89.583177524882913</v>
       </c>
@@ -9065,19 +9214,19 @@
         <v>49005</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="65"/>
       <c r="B58" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="40">
         <v>700</v>
       </c>
-      <c r="D58" s="61">
-        <f>AVERAGE(D14,D36)</f>
+      <c r="D58" s="52">
+        <f t="shared" si="20"/>
         <v>184.40453480876261</v>
       </c>
-      <c r="E58" s="61">
+      <c r="E58" s="52">
         <f t="shared" si="11"/>
         <v>49.78922439836591</v>
       </c>
@@ -9086,20 +9235,20 @@
         <v>13365</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+    <row r="59" spans="1:6">
+      <c r="A59" s="65"/>
       <c r="B59" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="40">
         <v>800</v>
       </c>
-      <c r="D59" s="61">
-        <f>AVERAGE(D15,D37)</f>
+      <c r="D59" s="52">
+        <f t="shared" si="20"/>
         <v>220.52775985366463</v>
       </c>
-      <c r="E59" s="61">
-        <f t="shared" ref="E59" si="22">D59*0.27</f>
+      <c r="E59" s="52">
+        <f t="shared" ref="E59" si="23">D59*0.27</f>
         <v>59.542495160489452</v>
       </c>
       <c r="F59" s="40">
@@ -9107,19 +9256,19 @@
         <v>16929</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+    <row r="60" spans="1:6">
+      <c r="A60" s="65"/>
       <c r="B60" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="40">
         <v>900</v>
       </c>
-      <c r="D60" s="61">
-        <f>AVERAGE(D16,D38)</f>
+      <c r="D60" s="52">
+        <f t="shared" si="20"/>
         <v>254.6250188776541</v>
       </c>
-      <c r="E60" s="61">
+      <c r="E60" s="52">
         <f t="shared" si="11"/>
         <v>68.748755096966605</v>
       </c>
@@ -9128,20 +9277,20 @@
         <v>20493</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
+    <row r="61" spans="1:6">
+      <c r="A61" s="65"/>
       <c r="B61" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="40">
         <v>1000</v>
       </c>
-      <c r="D61" s="61">
-        <f>AVERAGE(D17,D39)</f>
+      <c r="D61" s="52">
+        <f t="shared" si="20"/>
         <v>287.05232254049423</v>
       </c>
-      <c r="E61" s="61">
-        <f t="shared" ref="E61" si="23">D61*0.27</f>
+      <c r="E61" s="52">
+        <f t="shared" ref="E61" si="24">D61*0.27</f>
         <v>77.504127085933447</v>
       </c>
       <c r="F61" s="40">
@@ -9149,19 +9298,19 @@
         <v>24057</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
+    <row r="62" spans="1:6">
+      <c r="A62" s="65"/>
       <c r="B62" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="40">
         <v>1100</v>
       </c>
-      <c r="D62" s="61">
-        <f>AVERAGE(D18,D40)</f>
+      <c r="D62" s="52">
+        <f t="shared" si="20"/>
         <v>318.06359875575583</v>
       </c>
-      <c r="E62" s="61">
+      <c r="E62" s="52">
         <f t="shared" si="11"/>
         <v>85.877171664054075</v>
       </c>
@@ -9170,20 +9319,20 @@
         <v>27621</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
+    <row r="63" spans="1:6">
+      <c r="A63" s="65"/>
       <c r="B63" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="40">
         <v>1200</v>
       </c>
-      <c r="D63" s="61">
-        <f>AVERAGE(D19,D41)</f>
+      <c r="D63" s="52">
+        <f t="shared" si="20"/>
         <v>347.84633850343744</v>
       </c>
-      <c r="E63" s="61">
-        <f t="shared" ref="E63" si="24">D63*0.27</f>
+      <c r="E63" s="52">
+        <f t="shared" ref="E63" si="25">D63*0.27</f>
         <v>93.918511395928121</v>
       </c>
       <c r="F63" s="40">
@@ -9191,19 +9340,19 @@
         <v>31185</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
+    <row r="64" spans="1:6">
+      <c r="A64" s="65"/>
       <c r="B64" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="40">
         <v>1300</v>
       </c>
-      <c r="D64" s="61">
-        <f>AVERAGE(D20,D42)</f>
+      <c r="D64" s="52">
+        <f t="shared" si="20"/>
         <v>376.5429245006539</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="52">
         <f t="shared" si="11"/>
         <v>101.66658961517656</v>
       </c>
@@ -9212,20 +9361,20 @@
         <v>34749</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
+    <row r="65" spans="1:6">
+      <c r="A65" s="65"/>
       <c r="B65" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="40">
         <v>1400</v>
       </c>
-      <c r="D65" s="61">
-        <f>AVERAGE(D21,D43)</f>
+      <c r="D65" s="52">
+        <f t="shared" si="20"/>
         <v>404.26403308431884</v>
       </c>
-      <c r="E65" s="61">
-        <f t="shared" ref="E65" si="25">D65*0.27</f>
+      <c r="E65" s="52">
+        <f t="shared" ref="E65" si="26">D65*0.27</f>
         <v>109.15128893276609</v>
       </c>
       <c r="F65" s="40">
@@ -9233,19 +9382,19 @@
         <v>38313</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
+    <row r="66" spans="1:6">
+      <c r="A66" s="65"/>
       <c r="B66" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="40">
         <v>1500</v>
       </c>
-      <c r="D66" s="61">
-        <f>AVERAGE(D22,D44)</f>
+      <c r="D66" s="52">
+        <f t="shared" si="20"/>
         <v>431.09740119026719</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="52">
         <f t="shared" si="11"/>
         <v>116.39629832137214</v>
       </c>
@@ -9254,20 +9403,20 @@
         <v>41877</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
+    <row r="67" spans="1:6">
+      <c r="A67" s="65"/>
       <c r="B67" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="40">
         <v>1600</v>
       </c>
-      <c r="D67" s="61">
-        <f>AVERAGE(D23,D45)</f>
+      <c r="D67" s="52">
+        <f t="shared" si="20"/>
         <v>457.1137581292208</v>
       </c>
-      <c r="E67" s="61">
-        <f t="shared" ref="E67" si="26">D67*0.27</f>
+      <c r="E67" s="52">
+        <f t="shared" ref="E67" si="27">D67*0.27</f>
         <v>123.42071469488963</v>
       </c>
       <c r="F67" s="40">
@@ -9275,19 +9424,19 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
+    <row r="68" spans="1:6">
+      <c r="A68" s="65"/>
       <c r="B68" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C68" s="40">
         <v>1700</v>
       </c>
-      <c r="D68" s="61">
-        <f>AVERAGE(D24,D46)</f>
+      <c r="D68" s="52">
+        <f t="shared" si="20"/>
         <v>482.3709559032157</v>
       </c>
-      <c r="E68" s="61">
+      <c r="E68" s="52">
         <f t="shared" si="11"/>
         <v>130.24015809386825</v>
       </c>
@@ -9309,43 +9458,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="13" style="59" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="13" style="50" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="50" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F1" s="59" t="s">
+    <row r="1" spans="1:9">
+      <c r="F1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="1:9" ht="17" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -9356,8 +9505,8 @@
       </c>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -9366,11 +9515,11 @@
       <c r="C3" s="40">
         <v>700</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="52">
         <f>((-0.0000006*(C3^2))+(0.0086*C3)-1.107)*39</f>
         <v>180.14099999999999</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E24" si="0">D3*0.27</f>
         <v>48.638069999999999</v>
       </c>
@@ -9387,19 +9536,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="56"/>
       <c r="B4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="40">
         <v>800</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="52">
         <f>((-0.0000006*(C4^2))+(0.0086*C4)-1.107)*39</f>
         <v>210.17099999999996</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="52">
         <f t="shared" si="0"/>
         <v>56.746169999999992</v>
       </c>
@@ -9416,19 +9565,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="56"/>
       <c r="B5" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="40">
         <v>900</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="52">
         <f t="shared" ref="D5:D13" si="1">((-0.0000006*(C5^2))+(0.0086*C5)-1.107)*39</f>
         <v>239.733</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="52">
         <f t="shared" si="0"/>
         <v>64.727910000000008</v>
       </c>
@@ -9445,19 +9594,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="56"/>
       <c r="B6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="53">
         <v>1000</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="52">
         <f t="shared" si="1"/>
         <v>268.827</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="52">
         <f t="shared" si="0"/>
         <v>72.583290000000005</v>
       </c>
@@ -9471,19 +9620,19 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="56"/>
       <c r="B7" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="40">
         <v>1100</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="52">
         <f t="shared" si="1"/>
         <v>297.45300000000009</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
         <v>80.312310000000025</v>
       </c>
@@ -9497,19 +9646,19 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="56"/>
       <c r="B8" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="40">
         <v>1200</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="52">
         <f t="shared" si="1"/>
         <v>325.61099999999999</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="52">
         <f t="shared" si="0"/>
         <v>87.914969999999997</v>
       </c>
@@ -9526,19 +9675,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="56"/>
       <c r="B9" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="40">
         <v>1300</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="52">
         <f t="shared" si="1"/>
         <v>353.30100000000004</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="52">
         <f t="shared" si="0"/>
         <v>95.39127000000002</v>
       </c>
@@ -9555,19 +9704,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="56"/>
       <c r="B10" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="40">
         <v>1400</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="52">
         <f t="shared" si="1"/>
         <v>380.52299999999997</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="52">
         <f t="shared" si="0"/>
         <v>102.74121</v>
       </c>
@@ -9581,19 +9730,19 @@
       </c>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="56"/>
       <c r="B11" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="40">
         <v>1500</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="52">
         <f t="shared" si="1"/>
         <v>407.27700000000004</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="52">
         <f t="shared" si="0"/>
         <v>109.96479000000002</v>
       </c>
@@ -9610,19 +9759,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="56"/>
       <c r="B12" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="40">
         <v>1600</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="52">
         <f t="shared" si="1"/>
         <v>433.56300000000005</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="52">
         <f t="shared" si="0"/>
         <v>117.06201000000001</v>
       </c>
@@ -9636,19 +9785,19 @@
       </c>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="56"/>
       <c r="B13" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="40">
         <v>1700</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="52">
         <f t="shared" si="1"/>
         <v>459.38099999999997</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="52">
         <f t="shared" si="0"/>
         <v>124.03287</v>
       </c>
@@ -9665,19 +9814,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="56"/>
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="40">
         <v>700</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="52">
         <f>((-0.0000006*(C14^2))+(0.0086*C14)-1.107)*56.7</f>
         <v>261.89729999999997</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="52">
         <f t="shared" si="0"/>
         <v>70.712271000000001</v>
       </c>
@@ -9691,19 +9840,19 @@
       </c>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="56"/>
       <c r="B15" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="40">
         <v>800</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="52">
         <f>((-0.0000006*(C15^2))+(0.0086*C15)-1.107)*56.7</f>
         <v>305.55629999999996</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="52">
         <f t="shared" si="0"/>
         <v>82.50020099999999</v>
       </c>
@@ -9717,19 +9866,19 @@
       </c>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="56"/>
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="40">
         <v>900</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="52">
         <f t="shared" ref="D16:D24" si="4">((-0.0000006*(C16^2))+(0.0086*C16)-1.107)*56.7</f>
         <v>348.53490000000005</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="52">
         <f t="shared" si="0"/>
         <v>94.104423000000025</v>
       </c>
@@ -9743,19 +9892,19 @@
       </c>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="56"/>
       <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="40">
         <v>1000</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="52">
         <f t="shared" si="4"/>
         <v>390.8331</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="52">
         <f t="shared" si="0"/>
         <v>105.52493700000001</v>
       </c>
@@ -9769,19 +9918,19 @@
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="56"/>
       <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="40">
         <v>1100</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="52">
         <f t="shared" si="4"/>
         <v>432.4509000000001</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="52">
         <f t="shared" si="0"/>
         <v>116.76174300000004</v>
       </c>
@@ -9795,19 +9944,19 @@
       </c>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="56"/>
       <c r="B19" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="40">
         <v>1200</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="52">
         <f t="shared" si="4"/>
         <v>473.38830000000002</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="52">
         <f t="shared" si="0"/>
         <v>127.81484100000002</v>
       </c>
@@ -9821,19 +9970,19 @@
       </c>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="56"/>
       <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="40">
         <v>1300</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="52">
         <f t="shared" si="4"/>
         <v>513.64530000000013</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="52">
         <f t="shared" si="0"/>
         <v>138.68423100000004</v>
       </c>
@@ -9847,19 +9996,19 @@
       </c>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="56"/>
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="40">
         <v>1400</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="52">
         <f t="shared" si="4"/>
         <v>553.22190000000001</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="52">
         <f t="shared" si="0"/>
         <v>149.36991300000003</v>
       </c>
@@ -9873,19 +10022,19 @@
       </c>
       <c r="H21" s="30"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="56"/>
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="40">
         <v>1500</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="52">
         <f t="shared" si="4"/>
         <v>592.11810000000014</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="52">
         <f t="shared" si="0"/>
         <v>159.87188700000004</v>
       </c>
@@ -9899,19 +10048,19 @@
       </c>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="56"/>
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="40">
         <v>1600</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="52">
         <f t="shared" si="4"/>
         <v>630.33390000000009</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="52">
         <f t="shared" si="0"/>
         <v>170.19015300000004</v>
       </c>
@@ -9925,19 +10074,19 @@
       </c>
       <c r="H23" s="30"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+    <row r="24" spans="1:8" ht="16" thickBot="1">
+      <c r="A24" s="56"/>
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="40">
         <v>1700</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="52">
         <f t="shared" si="4"/>
         <v>667.86930000000007</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="52">
         <f t="shared" si="0"/>
         <v>180.32471100000004</v>
       </c>
@@ -9951,8 +10100,8 @@
       </c>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="58" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -9961,11 +10110,11 @@
       <c r="C25" s="40">
         <v>700</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="52">
         <f>(3.7758*LN(C25)-22.85)*39</f>
         <v>73.537196033218436</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="52">
         <f>D25*0.27</f>
         <v>19.855042928968977</v>
       </c>
@@ -9979,19 +10128,19 @@
       </c>
       <c r="H25" s="30"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="59"/>
       <c r="B26" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="40">
         <v>800</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="52">
         <f>(3.7758*LN(C26)-22.85)*39</f>
         <v>93.200521491813774</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="52">
         <f>D26*0.27</f>
         <v>25.164140802789721</v>
       </c>
@@ -10005,19 +10154,19 @@
       </c>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="59"/>
       <c r="B27" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="40">
         <v>900</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="52">
         <f t="shared" ref="D27:D35" si="5">(3.7758*LN(C27)-22.85)*39</f>
         <v>110.54480374703734</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="52">
         <f t="shared" ref="E27:E68" si="6">D27*0.27</f>
         <v>29.847097011700082</v>
       </c>
@@ -10031,19 +10180,19 @@
       </c>
       <c r="H27" s="30"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="59"/>
       <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="40">
         <v>1000</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="52">
         <f t="shared" si="5"/>
         <v>126.05979291284918</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="52">
         <f t="shared" si="6"/>
         <v>34.036144086469278</v>
       </c>
@@ -10057,19 +10206,19 @@
       </c>
       <c r="H28" s="30"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="59"/>
       <c r="B29" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="40">
         <v>1100</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="52">
         <f t="shared" si="5"/>
         <v>140.09480781215083</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="52">
         <f t="shared" si="6"/>
         <v>37.825598109280726</v>
       </c>
@@ -10083,19 +10232,19 @@
       </c>
       <c r="H29" s="30"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="59"/>
       <c r="B30" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="40">
         <v>1200</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="52">
         <f t="shared" si="5"/>
         <v>152.90777254441124</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="52">
         <f t="shared" si="6"/>
         <v>41.28509858699104</v>
       </c>
@@ -10109,19 +10258,19 @@
       </c>
       <c r="H30" s="30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="59"/>
       <c r="B31" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="40">
         <v>1300</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="52">
         <f t="shared" si="5"/>
         <v>164.69455751412696</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="52">
         <f t="shared" si="6"/>
         <v>44.467530528814279</v>
       </c>
@@ -10135,19 +10284,19 @@
       </c>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="59"/>
       <c r="B32" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="40">
         <v>1400</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="52">
         <f t="shared" si="5"/>
         <v>175.60741588318993</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="52">
         <f t="shared" si="6"/>
         <v>47.414002288461283</v>
       </c>
@@ -10161,19 +10310,19 @@
       </c>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="59"/>
       <c r="B33" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="40">
         <v>1500</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="52">
         <f t="shared" si="5"/>
         <v>185.76704396544679</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="52">
         <f t="shared" si="6"/>
         <v>50.157101870670637</v>
       </c>
@@ -10187,19 +10336,19 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="59"/>
       <c r="B34" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="40">
         <v>1600</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="52">
         <f t="shared" si="5"/>
         <v>195.27074134178514</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="52">
         <f t="shared" si="6"/>
         <v>52.723100162281995</v>
       </c>
@@ -10213,19 +10362,19 @@
       </c>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="59"/>
       <c r="B35" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="40">
         <v>1700</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="52">
         <f t="shared" si="5"/>
         <v>204.19809277691044</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="52">
         <f t="shared" si="6"/>
         <v>55.133485049765824</v>
       </c>
@@ -10239,19 +10388,19 @@
       </c>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="59"/>
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="40">
         <v>700</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="52">
         <f>(3.7758*LN(C36)-22.85)*56.7</f>
         <v>106.91176961752527</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="52">
         <f t="shared" si="6"/>
         <v>28.866177796731822</v>
       </c>
@@ -10265,19 +10414,19 @@
       </c>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="59"/>
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="40">
         <v>800</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="52">
         <f>(3.7758*LN(C37)-22.85)*56.7</f>
         <v>135.49921970732927</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="52">
         <f t="shared" si="6"/>
         <v>36.584789320978906</v>
       </c>
@@ -10291,19 +10440,19 @@
       </c>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="59"/>
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="40">
         <v>900</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="52">
         <f t="shared" ref="D38:D46" si="7">(3.7758*LN(C38)-22.85)*56.7</f>
         <v>160.71513775530815</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="52">
         <f t="shared" si="6"/>
         <v>43.393087193933205</v>
       </c>
@@ -10317,19 +10466,19 @@
       </c>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="59"/>
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="40">
         <v>1000</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="52">
         <f t="shared" si="7"/>
         <v>183.27154508098843</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="52">
         <f t="shared" si="6"/>
         <v>49.483317171866879</v>
       </c>
@@ -10342,19 +10491,19 @@
         <v>23760</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:8">
+      <c r="A40" s="59"/>
       <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="40">
         <v>1100</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="52">
         <f t="shared" si="7"/>
         <v>203.67629751151162</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="52">
         <f t="shared" si="6"/>
         <v>54.992600328108139</v>
       </c>
@@ -10367,19 +10516,19 @@
         <v>26928</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="59"/>
       <c r="B41" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="40">
         <v>1200</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="52">
         <f t="shared" si="7"/>
         <v>222.3043770068748</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="52">
         <f t="shared" si="6"/>
         <v>60.022181791856198</v>
       </c>
@@ -10392,19 +10541,19 @@
         <v>30096</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="59"/>
       <c r="B42" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="40">
         <v>1300</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="52">
         <f t="shared" si="7"/>
         <v>239.44054900130766</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="52">
         <f t="shared" si="6"/>
         <v>64.648948230353071</v>
       </c>
@@ -10417,19 +10566,19 @@
         <v>33264</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="59"/>
       <c r="B43" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="40">
         <v>1400</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="52">
         <f t="shared" si="7"/>
         <v>255.3061661686377</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="52">
         <f t="shared" si="6"/>
         <v>68.932664865532189</v>
       </c>
@@ -10442,19 +10591,19 @@
         <v>36432</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="59"/>
       <c r="B44" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="40">
         <v>1500</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="52">
         <f t="shared" si="7"/>
         <v>270.07670238053419</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="52">
         <f t="shared" si="6"/>
         <v>72.920709642744228</v>
       </c>
@@ -10467,19 +10616,19 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+    <row r="45" spans="1:8">
+      <c r="A45" s="59"/>
       <c r="B45" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="40">
         <v>1600</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="52">
         <f t="shared" si="7"/>
         <v>283.89361625844151</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="52">
         <f t="shared" si="6"/>
         <v>76.651276389779213</v>
       </c>
@@ -10492,19 +10641,19 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+    <row r="46" spans="1:8" ht="16" thickBot="1">
+      <c r="A46" s="60"/>
       <c r="B46" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="40">
         <v>1700</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="52">
         <f t="shared" si="7"/>
         <v>296.87261180643134</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="52">
         <f t="shared" si="6"/>
         <v>80.155605187736469</v>
       </c>
@@ -10517,8 +10666,8 @@
         <v>45936</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63" t="s">
+    <row r="47" spans="1:8" ht="15" customHeight="1">
+      <c r="A47" s="64" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="40" t="s">
@@ -10527,11 +10676,11 @@
       <c r="C47" s="40">
         <v>700</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="52">
         <f>AVERAGE(D3,D25)</f>
         <v>126.83909801660921</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="52">
         <f t="shared" si="6"/>
         <v>34.246556464484492</v>
       </c>
@@ -10544,19 +10693,19 @@
         <v>14256</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
+    <row r="48" spans="1:8">
+      <c r="A48" s="65"/>
       <c r="B48" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="40">
         <v>800</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="52">
         <f t="shared" ref="D48:D52" si="8">AVERAGE(D4,D26)</f>
         <v>151.68576074590686</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="52">
         <f t="shared" si="6"/>
         <v>40.955155401394855</v>
       </c>
@@ -10569,19 +10718,19 @@
         <v>17424</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="65"/>
       <c r="B49" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="40">
         <v>900</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="52">
         <f t="shared" si="8"/>
         <v>175.13890187351868</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="52">
         <f t="shared" si="6"/>
         <v>47.287503505850047</v>
       </c>
@@ -10594,19 +10743,19 @@
         <v>20592</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="65"/>
       <c r="B50" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="40">
         <v>1000</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="52">
         <f t="shared" si="8"/>
         <v>197.44339645642458</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="52">
         <f t="shared" si="6"/>
         <v>53.309717043234642</v>
       </c>
@@ -10619,19 +10768,19 @@
         <v>23760</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="65"/>
       <c r="B51" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="40">
         <v>1100</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="52">
         <f t="shared" si="8"/>
         <v>218.77390390607547</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="52">
         <f t="shared" si="6"/>
         <v>59.068954054640379</v>
       </c>
@@ -10644,19 +10793,19 @@
         <v>26928</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="65"/>
       <c r="B52" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="40">
         <v>1200</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="52">
         <f t="shared" si="8"/>
         <v>239.25938627220563</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="52">
         <f t="shared" si="6"/>
         <v>64.600034293495526</v>
       </c>
@@ -10669,19 +10818,19 @@
         <v>30096</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="65"/>
       <c r="B53" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="40">
         <v>1300</v>
       </c>
-      <c r="D53" s="61">
-        <f>AVERAGE(D9,D31)</f>
+      <c r="D53" s="52">
+        <f t="shared" ref="D53:D68" si="9">AVERAGE(D9,D31)</f>
         <v>258.99777875706349</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="52">
         <f t="shared" si="6"/>
         <v>69.92940026440715</v>
       </c>
@@ -10694,19 +10843,19 @@
         <v>33264</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
+    <row r="54" spans="1:7" ht="15" customHeight="1">
+      <c r="A54" s="65"/>
       <c r="B54" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="40">
         <v>1400</v>
       </c>
-      <c r="D54" s="61">
-        <f>AVERAGE(D10,D32)</f>
+      <c r="D54" s="52">
+        <f t="shared" si="9"/>
         <v>278.06520794159496</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="52">
         <f t="shared" si="6"/>
         <v>75.077606144230643</v>
       </c>
@@ -10719,19 +10868,19 @@
         <v>36432</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
+    <row r="55" spans="1:7">
+      <c r="A55" s="65"/>
       <c r="B55" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="40">
         <v>1500</v>
       </c>
-      <c r="D55" s="61">
-        <f>AVERAGE(D11,D33)</f>
+      <c r="D55" s="52">
+        <f t="shared" si="9"/>
         <v>296.5220219827234</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="52">
         <f t="shared" si="6"/>
         <v>80.060945935335326</v>
       </c>
@@ -10744,19 +10893,19 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
+    <row r="56" spans="1:7">
+      <c r="A56" s="65"/>
       <c r="B56" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="40">
         <v>1600</v>
       </c>
-      <c r="D56" s="61">
-        <f>AVERAGE(D12,D34)</f>
+      <c r="D56" s="52">
+        <f t="shared" si="9"/>
         <v>314.41687067089259</v>
       </c>
-      <c r="E56" s="61">
+      <c r="E56" s="52">
         <f t="shared" si="6"/>
         <v>84.892555081141012</v>
       </c>
@@ -10769,19 +10918,19 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="65"/>
       <c r="B57" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="40">
         <v>1700</v>
       </c>
-      <c r="D57" s="61">
-        <f>AVERAGE(D13,D35)</f>
+      <c r="D57" s="52">
+        <f t="shared" si="9"/>
         <v>331.78954638845522</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="52">
         <f t="shared" si="6"/>
         <v>89.583177524882913</v>
       </c>
@@ -10794,19 +10943,19 @@
         <v>45936</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="65"/>
       <c r="B58" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="40">
         <v>700</v>
       </c>
-      <c r="D58" s="61">
-        <f>AVERAGE(D14,D36)</f>
+      <c r="D58" s="52">
+        <f t="shared" si="9"/>
         <v>184.40453480876261</v>
       </c>
-      <c r="E58" s="61">
+      <c r="E58" s="52">
         <f t="shared" si="6"/>
         <v>49.78922439836591</v>
       </c>
@@ -10819,19 +10968,19 @@
         <v>14256</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
+    <row r="59" spans="1:7">
+      <c r="A59" s="65"/>
       <c r="B59" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="40">
         <v>800</v>
       </c>
-      <c r="D59" s="61">
-        <f>AVERAGE(D15,D37)</f>
+      <c r="D59" s="52">
+        <f t="shared" si="9"/>
         <v>220.52775985366463</v>
       </c>
-      <c r="E59" s="61">
+      <c r="E59" s="52">
         <f t="shared" si="6"/>
         <v>59.542495160489452</v>
       </c>
@@ -10844,19 +10993,19 @@
         <v>17424</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="65"/>
       <c r="B60" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="40">
         <v>900</v>
       </c>
-      <c r="D60" s="61">
-        <f>AVERAGE(D16,D38)</f>
+      <c r="D60" s="52">
+        <f t="shared" si="9"/>
         <v>254.6250188776541</v>
       </c>
-      <c r="E60" s="61">
+      <c r="E60" s="52">
         <f t="shared" si="6"/>
         <v>68.748755096966605</v>
       </c>
@@ -10869,19 +11018,19 @@
         <v>20592</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="65"/>
       <c r="B61" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="40">
         <v>1000</v>
       </c>
-      <c r="D61" s="61">
-        <f>AVERAGE(D17,D39)</f>
+      <c r="D61" s="52">
+        <f t="shared" si="9"/>
         <v>287.05232254049423</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="52">
         <f t="shared" si="6"/>
         <v>77.504127085933447</v>
       </c>
@@ -10894,19 +11043,19 @@
         <v>23760</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
+    <row r="62" spans="1:7">
+      <c r="A62" s="65"/>
       <c r="B62" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="40">
         <v>1100</v>
       </c>
-      <c r="D62" s="61">
-        <f>AVERAGE(D18,D40)</f>
+      <c r="D62" s="52">
+        <f t="shared" si="9"/>
         <v>318.06359875575583</v>
       </c>
-      <c r="E62" s="61">
+      <c r="E62" s="52">
         <f t="shared" si="6"/>
         <v>85.877171664054075</v>
       </c>
@@ -10919,19 +11068,19 @@
         <v>26928</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="65"/>
       <c r="B63" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="40">
         <v>1200</v>
       </c>
-      <c r="D63" s="61">
-        <f>AVERAGE(D19,D41)</f>
+      <c r="D63" s="52">
+        <f t="shared" si="9"/>
         <v>347.84633850343744</v>
       </c>
-      <c r="E63" s="61">
+      <c r="E63" s="52">
         <f t="shared" si="6"/>
         <v>93.918511395928121</v>
       </c>
@@ -10944,19 +11093,19 @@
         <v>30096</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
+    <row r="64" spans="1:7">
+      <c r="A64" s="65"/>
       <c r="B64" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="40">
         <v>1300</v>
       </c>
-      <c r="D64" s="61">
-        <f>AVERAGE(D20,D42)</f>
+      <c r="D64" s="52">
+        <f t="shared" si="9"/>
         <v>376.5429245006539</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="52">
         <f t="shared" si="6"/>
         <v>101.66658961517656</v>
       </c>
@@ -10969,19 +11118,19 @@
         <v>33264</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
+    <row r="65" spans="1:7">
+      <c r="A65" s="65"/>
       <c r="B65" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="40">
         <v>1400</v>
       </c>
-      <c r="D65" s="61">
-        <f>AVERAGE(D21,D43)</f>
+      <c r="D65" s="52">
+        <f t="shared" si="9"/>
         <v>404.26403308431884</v>
       </c>
-      <c r="E65" s="61">
+      <c r="E65" s="52">
         <f t="shared" si="6"/>
         <v>109.15128893276609</v>
       </c>
@@ -10994,19 +11143,19 @@
         <v>36432</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
+    <row r="66" spans="1:7">
+      <c r="A66" s="65"/>
       <c r="B66" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="40">
         <v>1500</v>
       </c>
-      <c r="D66" s="61">
-        <f>AVERAGE(D22,D44)</f>
+      <c r="D66" s="52">
+        <f t="shared" si="9"/>
         <v>431.09740119026719</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="52">
         <f t="shared" si="6"/>
         <v>116.39629832137214</v>
       </c>
@@ -11019,19 +11168,19 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
+    <row r="67" spans="1:7">
+      <c r="A67" s="65"/>
       <c r="B67" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="40">
         <v>1600</v>
       </c>
-      <c r="D67" s="61">
-        <f>AVERAGE(D23,D45)</f>
+      <c r="D67" s="52">
+        <f t="shared" si="9"/>
         <v>457.1137581292208</v>
       </c>
-      <c r="E67" s="61">
+      <c r="E67" s="52">
         <f t="shared" si="6"/>
         <v>123.42071469488963</v>
       </c>
@@ -11044,19 +11193,19 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
+    <row r="68" spans="1:7">
+      <c r="A68" s="65"/>
       <c r="B68" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C68" s="40">
         <v>1700</v>
       </c>
-      <c r="D68" s="61">
-        <f>AVERAGE(D24,D46)</f>
+      <c r="D68" s="52">
+        <f t="shared" si="9"/>
         <v>482.3709559032157</v>
       </c>
-      <c r="E68" s="61">
+      <c r="E68" s="52">
         <f t="shared" si="6"/>
         <v>130.24015809386825</v>
       </c>
@@ -11082,39 +11231,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="13" style="59" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="13" style="50" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="F1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="1:8" ht="17" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -11122,8 +11271,8 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -11132,11 +11281,11 @@
       <c r="C3" s="40">
         <v>700</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="52">
         <f>((-0.0000006*(C3^2))+(0.0086*C3)-1.107)*39</f>
         <v>180.14099999999999</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="52">
         <f t="shared" ref="E3:E24" si="0">D3*0.27</f>
         <v>48.638069999999999</v>
       </c>
@@ -11149,19 +11298,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="56"/>
       <c r="B4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="40">
         <v>800</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="52">
         <f>((-0.0000006*(C4^2))+(0.0086*C4)-1.107)*39</f>
         <v>210.17099999999996</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="52">
         <f t="shared" ref="E4" si="1">D4*0.27</f>
         <v>56.746169999999992</v>
       </c>
@@ -11174,19 +11323,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="56"/>
       <c r="B5" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="40">
         <v>900</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="52">
         <f t="shared" ref="D5:D13" si="2">((-0.0000006*(C5^2))+(0.0086*C5)-1.107)*39</f>
         <v>239.733</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="52">
         <f t="shared" si="0"/>
         <v>64.727910000000008</v>
       </c>
@@ -11199,19 +11348,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="56"/>
       <c r="B6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="53">
         <v>1000</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="52">
         <f t="shared" ref="D6" si="4">((-0.0000006*(C6^2))+(0.0086*C6)-1.107)*39</f>
         <v>268.827</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="52">
         <f t="shared" ref="E6" si="5">D6*0.27</f>
         <v>72.583290000000005</v>
       </c>
@@ -11221,19 +11370,19 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="56"/>
       <c r="B7" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="40">
         <v>1100</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="52">
         <f t="shared" si="2"/>
         <v>297.45300000000009</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="52">
         <f t="shared" si="0"/>
         <v>80.312310000000025</v>
       </c>
@@ -11243,19 +11392,19 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="56"/>
       <c r="B8" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="40">
         <v>1200</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="52">
         <f t="shared" si="2"/>
         <v>325.61099999999999</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="52">
         <f t="shared" si="0"/>
         <v>87.914969999999997</v>
       </c>
@@ -11268,19 +11417,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="56"/>
       <c r="B9" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="40">
         <v>1300</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="52">
         <f t="shared" si="2"/>
         <v>353.30100000000004</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="52">
         <f t="shared" si="0"/>
         <v>95.39127000000002</v>
       </c>
@@ -11293,19 +11442,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="56"/>
       <c r="B10" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="40">
         <v>1400</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="52">
         <f t="shared" si="2"/>
         <v>380.52299999999997</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="52">
         <f t="shared" si="0"/>
         <v>102.74121</v>
       </c>
@@ -11315,19 +11464,19 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="56"/>
       <c r="B11" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="40">
         <v>1500</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="52">
         <f t="shared" si="2"/>
         <v>407.27700000000004</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="52">
         <f t="shared" si="0"/>
         <v>109.96479000000002</v>
       </c>
@@ -11340,19 +11489,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="56"/>
       <c r="B12" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="40">
         <v>1600</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="52">
         <f t="shared" si="2"/>
         <v>433.56300000000005</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="52">
         <f t="shared" si="0"/>
         <v>117.06201000000001</v>
       </c>
@@ -11362,19 +11511,19 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="56"/>
       <c r="B13" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="40">
         <v>1700</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="52">
         <f t="shared" si="2"/>
         <v>459.38099999999997</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="52">
         <f t="shared" si="0"/>
         <v>124.03287</v>
       </c>
@@ -11387,19 +11536,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56"/>
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="40">
         <v>700</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="52">
         <f>((-0.0000006*(C14^2))+(0.0086*C14)-1.107)*56.7</f>
         <v>261.89729999999997</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="52">
         <f t="shared" si="0"/>
         <v>70.712271000000001</v>
       </c>
@@ -11409,19 +11558,19 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="56"/>
       <c r="B15" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="40">
         <v>800</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="52">
         <f>((-0.0000006*(C15^2))+(0.0086*C15)-1.107)*56.7</f>
         <v>305.55629999999996</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="52">
         <f t="shared" si="0"/>
         <v>82.50020099999999</v>
       </c>
@@ -11431,19 +11580,19 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="56"/>
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="40">
         <v>900</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="52">
         <f t="shared" ref="D16:D24" si="7">((-0.0000006*(C16^2))+(0.0086*C16)-1.107)*56.7</f>
         <v>348.53490000000005</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="52">
         <f t="shared" si="0"/>
         <v>94.104423000000025</v>
       </c>
@@ -11453,19 +11602,19 @@
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="56"/>
       <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="40">
         <v>1000</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="52">
         <f t="shared" ref="D17" si="8">((-0.0000006*(C17^2))+(0.0086*C17)-1.107)*56.7</f>
         <v>390.8331</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="52">
         <f t="shared" ref="E17" si="9">D17*0.27</f>
         <v>105.52493700000001</v>
       </c>
@@ -11475,19 +11624,19 @@
       </c>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="56"/>
       <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="40">
         <v>1100</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="52">
         <f t="shared" si="7"/>
         <v>432.4509000000001</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="52">
         <f t="shared" si="0"/>
         <v>116.76174300000004</v>
       </c>
@@ -11497,19 +11646,19 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="56"/>
       <c r="B19" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="40">
         <v>1200</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="52">
         <f t="shared" si="7"/>
         <v>473.38830000000002</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="52">
         <f t="shared" si="0"/>
         <v>127.81484100000002</v>
       </c>
@@ -11519,19 +11668,19 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="56"/>
       <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="40">
         <v>1300</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="52">
         <f t="shared" si="7"/>
         <v>513.64530000000013</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="52">
         <f t="shared" si="0"/>
         <v>138.68423100000004</v>
       </c>
@@ -11541,19 +11690,19 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="56"/>
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="40">
         <v>1400</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="52">
         <f t="shared" si="7"/>
         <v>553.22190000000001</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="52">
         <f t="shared" si="0"/>
         <v>149.36991300000003</v>
       </c>
@@ -11563,19 +11712,19 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="56"/>
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="40">
         <v>1500</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="52">
         <f t="shared" si="7"/>
         <v>592.11810000000014</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="52">
         <f t="shared" si="0"/>
         <v>159.87188700000004</v>
       </c>
@@ -11585,19 +11734,19 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="56"/>
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="40">
         <v>1600</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="52">
         <f t="shared" si="7"/>
         <v>630.33390000000009</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="52">
         <f t="shared" si="0"/>
         <v>170.19015300000004</v>
       </c>
@@ -11607,19 +11756,19 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="56"/>
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="40">
         <v>1700</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="52">
         <f t="shared" si="7"/>
         <v>667.86930000000007</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="52">
         <f t="shared" si="0"/>
         <v>180.32471100000004</v>
       </c>
@@ -11629,8 +11778,8 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="59" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -11639,11 +11788,11 @@
       <c r="C25" s="40">
         <v>700</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="52">
         <f>(3.7758*LN(C25)-22.85)*39</f>
         <v>73.537196033218436</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="52">
         <f>D25*0.27</f>
         <v>19.855042928968977</v>
       </c>
@@ -11653,19 +11802,19 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="59"/>
       <c r="B26" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="40">
         <v>800</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="52">
         <f>(3.7758*LN(C26)-22.85)*39</f>
         <v>93.200521491813774</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="52">
         <f>D26*0.27</f>
         <v>25.164140802789721</v>
       </c>
@@ -11675,19 +11824,19 @@
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+    <row r="27" spans="1:7" ht="15" customHeight="1">
+      <c r="A27" s="59"/>
       <c r="B27" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="40">
         <v>900</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="52">
         <f t="shared" ref="D27:D35" si="10">(3.7758*LN(C27)-22.85)*39</f>
         <v>110.54480374703734</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="52">
         <f t="shared" ref="E27:E68" si="11">D27*0.27</f>
         <v>29.847097011700082</v>
       </c>
@@ -11697,19 +11846,19 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="59"/>
       <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="40">
         <v>1000</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="52">
         <f t="shared" ref="D28" si="12">(3.7758*LN(C28)-22.85)*39</f>
         <v>126.05979291284918</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="52">
         <f t="shared" ref="E28" si="13">D28*0.27</f>
         <v>34.036144086469278</v>
       </c>
@@ -11719,19 +11868,19 @@
       </c>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="59"/>
       <c r="B29" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="40">
         <v>1100</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="52">
         <f t="shared" si="10"/>
         <v>140.09480781215083</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="52">
         <f t="shared" si="11"/>
         <v>37.825598109280726</v>
       </c>
@@ -11741,19 +11890,19 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="59"/>
       <c r="B30" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="40">
         <v>1200</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="52">
         <f t="shared" si="10"/>
         <v>152.90777254441124</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="52">
         <f t="shared" si="11"/>
         <v>41.28509858699104</v>
       </c>
@@ -11763,19 +11912,19 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="59"/>
       <c r="B31" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="40">
         <v>1300</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="52">
         <f t="shared" si="10"/>
         <v>164.69455751412696</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="52">
         <f t="shared" si="11"/>
         <v>44.467530528814279</v>
       </c>
@@ -11785,19 +11934,19 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="59"/>
       <c r="B32" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="40">
         <v>1400</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="52">
         <f t="shared" si="10"/>
         <v>175.60741588318993</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="52">
         <f t="shared" si="11"/>
         <v>47.414002288461283</v>
       </c>
@@ -11807,19 +11956,19 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="59"/>
       <c r="B33" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="40">
         <v>1500</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="52">
         <f t="shared" si="10"/>
         <v>185.76704396544679</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="52">
         <f t="shared" si="11"/>
         <v>50.157101870670637</v>
       </c>
@@ -11829,19 +11978,19 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="59"/>
       <c r="B34" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="40">
         <v>1600</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="52">
         <f t="shared" si="10"/>
         <v>195.27074134178514</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="52">
         <f t="shared" si="11"/>
         <v>52.723100162281995</v>
       </c>
@@ -11851,19 +12000,19 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="59"/>
       <c r="B35" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="40">
         <v>1700</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="52">
         <f t="shared" si="10"/>
         <v>204.19809277691044</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="52">
         <f t="shared" si="11"/>
         <v>55.133485049765824</v>
       </c>
@@ -11873,19 +12022,19 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="59"/>
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="40">
         <v>700</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="52">
         <f>(3.7758*LN(C36)-22.85)*56.7</f>
         <v>106.91176961752527</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="52">
         <f t="shared" si="11"/>
         <v>28.866177796731822</v>
       </c>
@@ -11895,19 +12044,19 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="59"/>
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="40">
         <v>800</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="52">
         <f>(3.7758*LN(C37)-22.85)*56.7</f>
         <v>135.49921970732927</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="52">
         <f t="shared" si="11"/>
         <v>36.584789320978906</v>
       </c>
@@ -11917,19 +12066,19 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="59"/>
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="40">
         <v>900</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="52">
         <f t="shared" ref="D38:D46" si="14">(3.7758*LN(C38)-22.85)*56.7</f>
         <v>160.71513775530815</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="52">
         <f t="shared" si="11"/>
         <v>43.393087193933205</v>
       </c>
@@ -11939,19 +12088,19 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="A39" s="59"/>
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="40">
         <v>1000</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="52">
         <f t="shared" ref="D39" si="15">(3.7758*LN(C39)-22.85)*56.7</f>
         <v>183.27154508098843</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="52">
         <f t="shared" ref="E39" si="16">D39*0.27</f>
         <v>49.483317171866879</v>
       </c>
@@ -11960,19 +12109,19 @@
         <v>21621.600000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="59"/>
       <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="40">
         <v>1100</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="52">
         <f t="shared" si="14"/>
         <v>203.67629751151162</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="52">
         <f t="shared" si="11"/>
         <v>54.992600328108139</v>
       </c>
@@ -11981,19 +12130,19 @@
         <v>24393.600000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="59"/>
       <c r="B41" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="40">
         <v>1200</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="52">
         <f t="shared" si="14"/>
         <v>222.3043770068748</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="52">
         <f t="shared" si="11"/>
         <v>60.022181791856198</v>
       </c>
@@ -12002,19 +12151,19 @@
         <v>27165.600000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="59"/>
       <c r="B42" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="40">
         <v>1300</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="52">
         <f t="shared" si="14"/>
         <v>239.44054900130766</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="52">
         <f t="shared" si="11"/>
         <v>64.648948230353071</v>
       </c>
@@ -12023,19 +12172,19 @@
         <v>29937.600000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="59"/>
       <c r="B43" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="40">
         <v>1400</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="52">
         <f t="shared" si="14"/>
         <v>255.3061661686377</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="52">
         <f t="shared" si="11"/>
         <v>68.932664865532189</v>
       </c>
@@ -12044,19 +12193,19 @@
         <v>32709.600000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="59"/>
       <c r="B44" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="40">
         <v>1500</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="52">
         <f t="shared" si="14"/>
         <v>270.07670238053419</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="52">
         <f t="shared" si="11"/>
         <v>72.920709642744228</v>
       </c>
@@ -12065,19 +12214,19 @@
         <v>35481.599999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="59"/>
       <c r="B45" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="40">
         <v>1600</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="52">
         <f t="shared" si="14"/>
         <v>283.89361625844151</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="52">
         <f t="shared" si="11"/>
         <v>76.651276389779213</v>
       </c>
@@ -12086,19 +12235,19 @@
         <v>38253.599999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="59"/>
       <c r="B46" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="40">
         <v>1700</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="52">
         <f t="shared" si="14"/>
         <v>296.87261180643134</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="52">
         <f t="shared" si="11"/>
         <v>80.155605187736469</v>
       </c>
@@ -12107,8 +12256,8 @@
         <v>41025.599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:7" ht="21" customHeight="1">
+      <c r="A47" s="62" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="40" t="s">
@@ -12117,11 +12266,11 @@
       <c r="C47" s="40">
         <v>700</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="52">
         <f>AVERAGE(D3,D25)</f>
         <v>126.83909801660921</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="52">
         <f t="shared" si="11"/>
         <v>34.246556464484492</v>
       </c>
@@ -12130,19 +12279,19 @@
         <v>13305.6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+    <row r="48" spans="1:7">
+      <c r="A48" s="62"/>
       <c r="B48" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="40">
         <v>800</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="52">
         <f t="shared" ref="D48:D56" si="17">AVERAGE(D4,D26)</f>
         <v>151.68576074590686</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="52">
         <f t="shared" ref="E48:E56" si="18">D48*0.27</f>
         <v>40.955155401394855</v>
       </c>
@@ -12151,19 +12300,19 @@
         <v>16077.600000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="62"/>
       <c r="B49" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="40">
         <v>900</v>
       </c>
-      <c r="D49" s="61">
+      <c r="D49" s="52">
         <f t="shared" si="17"/>
         <v>175.13890187351868</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="52">
         <f t="shared" si="18"/>
         <v>47.287503505850047</v>
       </c>
@@ -12172,19 +12321,19 @@
         <v>18849.600000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+    <row r="50" spans="1:6">
+      <c r="A50" s="62"/>
       <c r="B50" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="40">
         <v>1000</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="52">
         <f t="shared" si="17"/>
         <v>197.44339645642458</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="52">
         <f t="shared" si="18"/>
         <v>53.309717043234642</v>
       </c>
@@ -12193,19 +12342,19 @@
         <v>21621.600000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="62"/>
       <c r="B51" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="40">
         <v>1100</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="52">
         <f t="shared" si="17"/>
         <v>218.77390390607547</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="52">
         <f t="shared" si="18"/>
         <v>59.068954054640379</v>
       </c>
@@ -12214,19 +12363,19 @@
         <v>24393.600000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="62"/>
       <c r="B52" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="40">
         <v>1200</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="52">
         <f t="shared" si="17"/>
         <v>239.25938627220563</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="52">
         <f t="shared" si="18"/>
         <v>64.600034293495526</v>
       </c>
@@ -12235,19 +12384,19 @@
         <v>27165.600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="62"/>
       <c r="B53" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="40">
         <v>1300</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="52">
         <f t="shared" si="17"/>
         <v>258.99777875706349</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="52">
         <f t="shared" si="18"/>
         <v>69.92940026440715</v>
       </c>
@@ -12256,19 +12405,19 @@
         <v>29937.600000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="62"/>
       <c r="B54" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="40">
         <v>1400</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="52">
         <f t="shared" si="17"/>
         <v>278.06520794159496</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="52">
         <f t="shared" si="18"/>
         <v>75.077606144230643</v>
       </c>
@@ -12277,19 +12426,19 @@
         <v>32709.600000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="62"/>
       <c r="B55" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="40">
         <v>1500</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="52">
         <f t="shared" si="17"/>
         <v>296.5220219827234</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="52">
         <f t="shared" si="18"/>
         <v>80.060945935335326</v>
       </c>
@@ -12298,19 +12447,19 @@
         <v>35481.599999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="62"/>
       <c r="B56" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="40">
         <v>1600</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="52">
         <f t="shared" si="17"/>
         <v>314.41687067089259</v>
       </c>
-      <c r="E56" s="61">
+      <c r="E56" s="52">
         <f t="shared" si="18"/>
         <v>84.892555081141012</v>
       </c>
@@ -12319,19 +12468,19 @@
         <v>38253.599999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="62"/>
       <c r="B57" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="40">
         <v>1700</v>
       </c>
-      <c r="D57" s="61">
-        <f>AVERAGE(D13,D35)</f>
+      <c r="D57" s="52">
+        <f t="shared" ref="D57:D68" si="20">AVERAGE(D13,D35)</f>
         <v>331.78954638845522</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="52">
         <f t="shared" si="11"/>
         <v>89.583177524882913</v>
       </c>
@@ -12340,19 +12489,19 @@
         <v>41025.599999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
+    <row r="58" spans="1:6">
+      <c r="A58" s="62"/>
       <c r="B58" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="40">
         <v>700</v>
       </c>
-      <c r="D58" s="61">
-        <f>AVERAGE(D14,D36)</f>
+      <c r="D58" s="52">
+        <f t="shared" si="20"/>
         <v>184.40453480876261</v>
       </c>
-      <c r="E58" s="61">
+      <c r="E58" s="52">
         <f t="shared" si="11"/>
         <v>49.78922439836591</v>
       </c>
@@ -12361,20 +12510,20 @@
         <v>13305.6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="62"/>
       <c r="B59" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="40">
         <v>800</v>
       </c>
-      <c r="D59" s="61">
-        <f>AVERAGE(D15,D37)</f>
+      <c r="D59" s="52">
+        <f t="shared" si="20"/>
         <v>220.52775985366463</v>
       </c>
-      <c r="E59" s="61">
-        <f t="shared" ref="E59" si="20">D59*0.27</f>
+      <c r="E59" s="52">
+        <f t="shared" ref="E59" si="21">D59*0.27</f>
         <v>59.542495160489452</v>
       </c>
       <c r="F59" s="30">
@@ -12382,19 +12531,19 @@
         <v>16077.600000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
+    <row r="60" spans="1:6">
+      <c r="A60" s="62"/>
       <c r="B60" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="40">
         <v>900</v>
       </c>
-      <c r="D60" s="61">
-        <f>AVERAGE(D16,D38)</f>
+      <c r="D60" s="52">
+        <f t="shared" si="20"/>
         <v>254.6250188776541</v>
       </c>
-      <c r="E60" s="61">
+      <c r="E60" s="52">
         <f t="shared" si="11"/>
         <v>68.748755096966605</v>
       </c>
@@ -12403,20 +12552,20 @@
         <v>18849.600000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+    <row r="61" spans="1:6">
+      <c r="A61" s="62"/>
       <c r="B61" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="40">
         <v>1000</v>
       </c>
-      <c r="D61" s="61">
-        <f>AVERAGE(D17,D39)</f>
+      <c r="D61" s="52">
+        <f t="shared" si="20"/>
         <v>287.05232254049423</v>
       </c>
-      <c r="E61" s="61">
-        <f t="shared" ref="E61" si="21">D61*0.27</f>
+      <c r="E61" s="52">
+        <f t="shared" ref="E61" si="22">D61*0.27</f>
         <v>77.504127085933447</v>
       </c>
       <c r="F61" s="30">
@@ -12424,19 +12573,19 @@
         <v>21621.600000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+    <row r="62" spans="1:6">
+      <c r="A62" s="62"/>
       <c r="B62" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="40">
         <v>1100</v>
       </c>
-      <c r="D62" s="61">
-        <f>AVERAGE(D18,D40)</f>
+      <c r="D62" s="52">
+        <f t="shared" si="20"/>
         <v>318.06359875575583</v>
       </c>
-      <c r="E62" s="61">
+      <c r="E62" s="52">
         <f t="shared" si="11"/>
         <v>85.877171664054075</v>
       </c>
@@ -12445,20 +12594,20 @@
         <v>24393.600000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+    <row r="63" spans="1:6">
+      <c r="A63" s="62"/>
       <c r="B63" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="40">
         <v>1200</v>
       </c>
-      <c r="D63" s="61">
-        <f>AVERAGE(D19,D41)</f>
+      <c r="D63" s="52">
+        <f t="shared" si="20"/>
         <v>347.84633850343744</v>
       </c>
-      <c r="E63" s="61">
-        <f t="shared" ref="E63" si="22">D63*0.27</f>
+      <c r="E63" s="52">
+        <f t="shared" ref="E63" si="23">D63*0.27</f>
         <v>93.918511395928121</v>
       </c>
       <c r="F63" s="30">
@@ -12466,19 +12615,19 @@
         <v>27165.600000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+    <row r="64" spans="1:6">
+      <c r="A64" s="62"/>
       <c r="B64" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="40">
         <v>1300</v>
       </c>
-      <c r="D64" s="61">
-        <f>AVERAGE(D20,D42)</f>
+      <c r="D64" s="52">
+        <f t="shared" si="20"/>
         <v>376.5429245006539</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="52">
         <f t="shared" si="11"/>
         <v>101.66658961517656</v>
       </c>
@@ -12487,20 +12636,20 @@
         <v>29937.600000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+    <row r="65" spans="1:6">
+      <c r="A65" s="62"/>
       <c r="B65" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="40">
         <v>1400</v>
       </c>
-      <c r="D65" s="61">
-        <f>AVERAGE(D21,D43)</f>
+      <c r="D65" s="52">
+        <f t="shared" si="20"/>
         <v>404.26403308431884</v>
       </c>
-      <c r="E65" s="61">
-        <f t="shared" ref="E65" si="23">D65*0.27</f>
+      <c r="E65" s="52">
+        <f t="shared" ref="E65" si="24">D65*0.27</f>
         <v>109.15128893276609</v>
       </c>
       <c r="F65" s="30">
@@ -12508,19 +12657,19 @@
         <v>32709.600000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+    <row r="66" spans="1:6">
+      <c r="A66" s="62"/>
       <c r="B66" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="40">
         <v>1500</v>
       </c>
-      <c r="D66" s="61">
-        <f>AVERAGE(D22,D44)</f>
+      <c r="D66" s="52">
+        <f t="shared" si="20"/>
         <v>431.09740119026719</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="52">
         <f t="shared" si="11"/>
         <v>116.39629832137214</v>
       </c>
@@ -12529,20 +12678,20 @@
         <v>35481.599999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+    <row r="67" spans="1:6">
+      <c r="A67" s="62"/>
       <c r="B67" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="40">
         <v>1600</v>
       </c>
-      <c r="D67" s="61">
-        <f>AVERAGE(D23,D45)</f>
+      <c r="D67" s="52">
+        <f t="shared" si="20"/>
         <v>457.1137581292208</v>
       </c>
-      <c r="E67" s="61">
-        <f t="shared" ref="E67" si="24">D67*0.27</f>
+      <c r="E67" s="52">
+        <f t="shared" ref="E67" si="25">D67*0.27</f>
         <v>123.42071469488963</v>
       </c>
       <c r="F67" s="30">
@@ -12550,19 +12699,19 @@
         <v>38253.599999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="58"/>
+    <row r="68" spans="1:6" ht="16" thickBot="1">
+      <c r="A68" s="63"/>
       <c r="B68" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C68" s="40">
         <v>1700</v>
       </c>
-      <c r="D68" s="61">
-        <f>AVERAGE(D24,D46)</f>
+      <c r="D68" s="52">
+        <f t="shared" si="20"/>
         <v>482.3709559032157</v>
       </c>
-      <c r="E68" s="61">
+      <c r="E68" s="52">
         <f t="shared" si="11"/>
         <v>130.24015809386825</v>
       </c>
@@ -12571,11 +12720,11 @@
         <v>41025.599999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
+    <row r="69" spans="1:6">
+      <c r="A69" s="54"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
